--- a/Test.xlsx
+++ b/Test.xlsx
@@ -20,27 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ay</t>
-  </si>
-  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">By</t>
-  </si>
-  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">aa</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
@@ -49,10 +40,13 @@
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t xml:space="preserve">bb</t>
+    <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
@@ -163,13 +157,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -184,31 +181,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,19 +201,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,19 +215,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,18 +229,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -276,19 +243,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>-1</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,18 +257,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>-3</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
